--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA6BD84-8198-4B20-B86C-AB22CB0E654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA0349-7373-4E17-9282-A208647C419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="975" windowWidth="16695" windowHeight="15135" tabRatio="920" firstSheet="82" activeTab="84" xr2:uid="{4149C2B6-5FC6-4025-B0A7-5DEF302FBE20}"/>
+    <workbookView xWindow="4545" yWindow="1875" windowWidth="23910" windowHeight="15135" tabRatio="920" firstSheet="4" activeTab="4" xr2:uid="{4149C2B6-5FC6-4025-B0A7-5DEF302FBE20}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="103" r:id="rId1"/>
@@ -1073,8 +1073,8 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4273,91 +4273,91 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="92">
         <v>0.96209995764645662</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="92">
         <v>0.96070004054939806</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="92">
         <v>0.95939995161511238</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="92">
         <v>0.95789986771473112</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="92">
         <v>0.95630011616147381</v>
       </c>
-      <c r="G4" s="93">
+      <c r="G4" s="92">
         <v>0.95450014869517874</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="92">
         <v>0.95259986397834218</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="92">
         <v>0.95050001747082391</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="92">
         <v>0.94820015364122834</v>
       </c>
-      <c r="K4" s="93">
+      <c r="K4" s="92">
         <v>0.94619984757693842</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="92">
         <v>0.94399983883977989</v>
       </c>
-      <c r="M4" s="93">
+      <c r="M4" s="92">
         <v>0.94180012505900423</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="92">
         <v>0.9393999215918265</v>
       </c>
-      <c r="O4" s="93">
+      <c r="O4" s="92">
         <v>0.93690015579991637</v>
       </c>
-      <c r="P4" s="93">
+      <c r="P4" s="92">
         <v>0.9342000944113068</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="Q4" s="92">
         <v>0.93140006821652233</v>
       </c>
-      <c r="R4" s="93">
+      <c r="R4" s="92">
         <v>0.9285002029788626</v>
       </c>
-      <c r="S4" s="93">
+      <c r="S4" s="92">
         <v>0.92539985076973297</v>
       </c>
-      <c r="T4" s="93">
+      <c r="T4" s="92">
         <v>0.92219993424385949</v>
       </c>
-      <c r="U4" s="93">
+      <c r="U4" s="92">
         <v>0.91889977050488014</v>
       </c>
-      <c r="V4" s="93">
+      <c r="V4" s="92">
         <v>0.91530000601008632</v>
       </c>
-      <c r="W4" s="93">
+      <c r="W4" s="92">
         <v>0.91160001789315837</v>
       </c>
-      <c r="X4" s="93">
+      <c r="X4" s="92">
         <v>0.90769994239305962</v>
       </c>
-      <c r="Y4" s="93">
+      <c r="Y4" s="92">
         <v>0.90370001084346463</v>
       </c>
-      <c r="Z4" s="93">
+      <c r="Z4" s="92">
         <v>0.8995000555173126</v>
       </c>
-      <c r="AA4" s="93">
+      <c r="AA4" s="92">
         <v>0.89520001508440983</v>
       </c>
-      <c r="AB4" s="93">
+      <c r="AB4" s="92">
         <v>0.89080007602277711</v>
       </c>
-      <c r="AC4" s="93">
+      <c r="AC4" s="92">
         <v>0.88630014322802031</v>
       </c>
-      <c r="AD4" s="93">
+      <c r="AD4" s="92">
         <v>0.88180001191630419</v>
       </c>
       <c r="AE4" s="1">
@@ -59126,8 +59126,8 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59520,11 +59520,11 @@
       <c r="AD4" s="92">
         <v>0.93359990871754606</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="93">
         <f>POTEnCIA!AY25/POTEnCIA!AY24</f>
         <v>0.9354597439318284</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="93">
         <f>POTEnCIA!AZ25/POTEnCIA!AZ24</f>
         <v>0.93364239320421838</v>
       </c>
@@ -97588,7 +97588,7 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>

--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\BPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA0349-7373-4E17-9282-A208647C419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FE290-3032-4023-9DC1-DBD9D8FF995F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1875" windowWidth="23910" windowHeight="15135" tabRatio="920" firstSheet="4" activeTab="4" xr2:uid="{4149C2B6-5FC6-4025-B0A7-5DEF302FBE20}"/>
+    <workbookView xWindow="58755" yWindow="3990" windowWidth="26820" windowHeight="12195" tabRatio="920" firstSheet="79" activeTab="84" xr2:uid="{4149C2B6-5FC6-4025-B0A7-5DEF302FBE20}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="103" r:id="rId1"/>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1073,8 +1073,7 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1513,24 +1512,24 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="84"/>
-    <col min="3" max="3" width="14.7109375" style="84" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="84"/>
+    <col min="1" max="2" width="10.81640625" style="84"/>
+    <col min="3" max="3" width="14.7265625" style="84" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="84"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="83" t="s">
         <v>0</v>
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="85"/>
       <c r="K12" s="87"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="85" t="s">
         <v>1</v>
       </c>
@@ -1542,32 +1541,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="85"/>
       <c r="C14" s="86"/>
       <c r="K14" s="86"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="85"/>
       <c r="C15" s="86"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="85" t="s">
         <v>4</v>
       </c>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="85"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="90"/>
       <c r="B18" s="91"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="90"/>
       <c r="B19" s="90" t="s">
         <v>5</v>
@@ -1576,7 +1575,7 @@
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="90"/>
       <c r="B20" s="90" t="s">
         <v>6</v>
@@ -1585,7 +1584,7 @@
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="90" t="s">
         <v>7</v>
@@ -1594,7 +1593,7 @@
       <c r="D21" s="90"/>
       <c r="E21" s="90"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="90"/>
       <c r="B22" s="90" t="s">
         <v>8</v>
@@ -1603,7 +1602,7 @@
       <c r="D22" s="90"/>
       <c r="E22" s="90"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="90"/>
       <c r="B23" s="90" t="s">
         <v>9</v>
@@ -1612,7 +1611,7 @@
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="90"/>
       <c r="B24" s="90" t="s">
         <v>10</v>
@@ -1621,14 +1620,14 @@
       <c r="D24" s="90"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="90"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
       <c r="D25" s="90"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="90"/>
       <c r="B26" s="90" t="s">
         <v>11</v>
@@ -1637,7 +1636,7 @@
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="90"/>
       <c r="B27" s="90" t="s">
         <v>12</v>
@@ -1646,14 +1645,14 @@
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="90"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="90"/>
       <c r="B29" s="90" t="s">
         <v>13</v>
@@ -1662,14 +1661,14 @@
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="90"/>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="90"/>
       <c r="B31" s="90" t="s">
         <v>14</v>
@@ -1678,14 +1677,14 @@
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="90"/>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
       <c r="D32" s="90"/>
       <c r="E32" s="90"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="90"/>
       <c r="B33" s="90" t="s">
         <v>15</v>
@@ -1694,7 +1693,7 @@
       <c r="D33" s="90"/>
       <c r="E33" s="90"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="90"/>
       <c r="B34" s="90" t="s">
         <v>16</v>
@@ -1703,14 +1702,14 @@
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="90"/>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
       <c r="D35" s="90"/>
       <c r="E35" s="90"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="90" t="s">
         <v>17</v>
@@ -1719,7 +1718,7 @@
       <c r="D36" s="90"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="90"/>
       <c r="B37" s="90" t="s">
         <v>18</v>
@@ -1728,7 +1727,7 @@
       <c r="D37" s="90"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="90"/>
       <c r="C38" s="90"/>
@@ -1755,7 +1754,7 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1772,12 +1771,12 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2871,12 +2870,12 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -3967,15 +3966,15 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4370,7 +4369,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -4569,7 +4568,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -5075,12 +5074,12 @@
       <selection activeCell="B7" sqref="B7:AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -5473,7 +5472,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>0.92215481567563895</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5672,7 +5671,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>7.7845184324361008E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -6180,12 +6179,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>0.13482641345652482</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>0.8651735865434752</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -7283,12 +7282,12 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -8072,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -8382,12 +8381,12 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -9479,7 +9478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9496,12 +9495,12 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -10089,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -10383,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -10592,21 +10591,21 @@
   <dimension ref="A1:AZ200"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.65" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="11.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="7" customWidth="1"/>
-    <col min="2" max="17" width="10.7109375" style="54" customWidth="1"/>
-    <col min="18" max="19" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.28515625" style="7"/>
+    <col min="1" max="1" width="50.7265625" style="7" customWidth="1"/>
+    <col min="2" max="17" width="10.7265625" style="54" customWidth="1"/>
+    <col min="18" max="19" width="8.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.26953125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -10783,7 +10782,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -10804,7 +10803,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>293976.74779517431</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>277876.38408937975</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>5889.8968363835966</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>77106.892094180454</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>25</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>194879.5951588157</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>1815.2930210577915</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
@@ -11223,7 +11222,7 @@
         <v>14126.647493077617</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>127.95007500890392</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>29</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>2678.2666495917947</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>11320.430768476919</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>158.42319165914685</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>293976.74779517431</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>34</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>191166.81886780221</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>35</v>
       </c>
@@ -11819,7 +11818,7 @@
         <v>3005.0154465650867</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
         <v>36</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>2862.6893177763886</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
         <v>37</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>594.15683345475782</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
         <v>38</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>142.32612878869824</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>39</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>172605.06339857329</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>40</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>49757.107093588107</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
         <v>41</v>
       </c>
@@ -12621,7 +12620,7 @@
         <v>46455.344545776192</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>38</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>3301.762547811913</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>42</v>
       </c>
@@ -12972,7 +12971,7 @@
         <v>40271.605032068139</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>43</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>37156.967325937738</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>38</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>3114.6377061304047</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>44</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>3126.8951622220752</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>45</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>3259.6056194148987</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>46</v>
       </c>
@@ -13737,7 +13736,7 @@
         <v>2947.2377709789125</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>47</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>312.36784843598599</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>48</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>15403.680917582838</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="56" t="s">
         <v>36</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>10825.816093179386</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="57" t="s">
         <v>38</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>1.2918998911237471</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="56" t="s">
         <v>37</v>
       </c>
@@ -14462,7 +14461,7 @@
         <v>4577.8648244034521</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>49</v>
       </c>
@@ -14620,7 +14619,7 @@
         <v>23487.411810876598</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>50</v>
       </c>
@@ -14748,7 +14747,7 @@
         <v>28065.27663528005</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="70" t="s">
         <v>51</v>
       </c>
@@ -14876,7 +14875,7 @@
         <v>1135.9969346653468</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
         <v>52</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>906.5738350427057</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="71" t="s">
         <v>53</v>
       </c>
@@ -15132,7 +15131,7 @@
         <v>229.42309962264105</v>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>54</v>
       </c>
@@ -15201,7 +15200,7 @@
         <v>14715.522975597674</v>
       </c>
     </row>
-    <row r="44" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>40</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>402.20323852126114</v>
       </c>
     </row>
-    <row r="45" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55" t="s">
         <v>41</v>
       </c>
@@ -15522,7 +15521,7 @@
         <v>243.57671157697433</v>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>38</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>158.62652694428678</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>42</v>
       </c>
@@ -15873,7 +15872,7 @@
         <v>7920.9761559513499</v>
       </c>
     </row>
-    <row r="48" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
         <v>43</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>7295.7911629345654</v>
       </c>
     </row>
-    <row r="49" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>38</v>
       </c>
@@ -16159,7 +16158,7 @@
         <v>625.1849930167848</v>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>44</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>17.819833798538543</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>45</v>
       </c>
@@ -16510,7 +16509,7 @@
         <v>1708.1229942285972</v>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>46</v>
       </c>
@@ -16638,7 +16637,7 @@
         <v>1529.850533195998</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="s">
         <v>47</v>
       </c>
@@ -16796,7 +16795,7 @@
         <v>178.27246103259927</v>
       </c>
     </row>
-    <row r="54" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -16960,7 +16959,7 @@
         <v>198.0626709678173</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
         <v>55</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>86.06112333503151</v>
       </c>
     </row>
-    <row r="56" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
         <v>37</v>
       </c>
@@ -17252,7 +17251,7 @@
         <v>112.00154763278579</v>
       </c>
     </row>
-    <row r="57" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>49</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>2129.5681328369506</v>
       </c>
     </row>
-    <row r="58" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>50</v>
       </c>
@@ -17538,7 +17537,7 @@
         <v>2241.5696804697363</v>
       </c>
     </row>
-    <row r="59" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="70" t="s">
         <v>51</v>
       </c>
@@ -17666,7 +17665,7 @@
         <v>596.82432121954719</v>
       </c>
     </row>
-    <row r="60" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="71" t="s">
         <v>52</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>507.92203733771817</v>
       </c>
     </row>
-    <row r="61" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="71" t="s">
         <v>53</v>
       </c>
@@ -17922,7 +17921,7 @@
         <v>88.90228388182905</v>
       </c>
     </row>
-    <row r="62" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
         <v>56</v>
       </c>
@@ -17991,7 +17990,7 @@
         <v>102809.92892737211</v>
       </c>
     </row>
-    <row r="63" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
         <v>57</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>34105.273865086812</v>
       </c>
     </row>
-    <row r="64" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
         <v>40</v>
       </c>
@@ -18253,7 +18252,7 @@
         <v>2578.9915577812708</v>
       </c>
     </row>
-    <row r="65" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>41</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>2274.2201320678832</v>
       </c>
     </row>
-    <row r="66" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
         <v>38</v>
       </c>
@@ -18539,7 +18538,7 @@
         <v>304.77142571338766</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>42</v>
       </c>
@@ -18732,7 +18731,7 @@
         <v>22689.673243875506</v>
       </c>
     </row>
-    <row r="68" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>43</v>
       </c>
@@ -18860,7 +18859,7 @@
         <v>20923.391447946495</v>
       </c>
     </row>
-    <row r="69" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
         <v>38</v>
       </c>
@@ -19018,7 +19017,7 @@
         <v>1766.281795929011</v>
       </c>
     </row>
-    <row r="70" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>44</v>
       </c>
@@ -19176,7 +19175,7 @@
         <v>230.92458493381989</v>
       </c>
     </row>
-    <row r="71" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>45</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>683.54309205135849</v>
       </c>
     </row>
-    <row r="72" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>46</v>
       </c>
@@ -19497,7 +19496,7 @@
         <v>601.8451952806497</v>
       </c>
     </row>
-    <row r="73" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>47</v>
       </c>
@@ -19655,7 +19654,7 @@
         <v>81.69789677070878</v>
       </c>
     </row>
-    <row r="74" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>48</v>
       </c>
@@ -19819,7 +19818,7 @@
         <v>4839.1577551929449</v>
       </c>
     </row>
-    <row r="75" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>55</v>
       </c>
@@ -19947,7 +19946,7 @@
         <v>4186.7114709099524</v>
       </c>
     </row>
-    <row r="76" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
         <v>37</v>
       </c>
@@ -20111,7 +20110,7 @@
         <v>652.44628428299256</v>
       </c>
     </row>
-    <row r="77" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>49</v>
       </c>
@@ -20269,7 +20268,7 @@
         <v>4657.3199727906276</v>
       </c>
     </row>
-    <row r="78" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>50</v>
       </c>
@@ -20397,7 +20396,7 @@
         <v>5309.7662570736202</v>
       </c>
     </row>
-    <row r="79" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="70" t="s">
         <v>51</v>
       </c>
@@ -20525,7 +20524,7 @@
         <v>373.61097059190115</v>
       </c>
     </row>
-    <row r="80" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="71" t="s">
         <v>52</v>
       </c>
@@ -20653,7 +20652,7 @@
         <v>319.49706135680992</v>
       </c>
     </row>
-    <row r="81" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="71" t="s">
         <v>53</v>
       </c>
@@ -20781,7 +20780,7 @@
         <v>54.113909235091214</v>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>58</v>
       </c>
@@ -20850,7 +20849,7 @@
         <v>68704.655062285296</v>
       </c>
     </row>
-    <row r="83" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>59</v>
       </c>
@@ -21043,7 +21042,7 @@
         <v>49469.98702229857</v>
       </c>
     </row>
-    <row r="84" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>43</v>
       </c>
@@ -21171,7 +21170,7 @@
         <v>45555.668804661349</v>
       </c>
     </row>
-    <row r="85" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="56" t="s">
         <v>38</v>
       </c>
@@ -21329,7 +21328,7 @@
         <v>3914.3182176372229</v>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>40</v>
       </c>
@@ -21490,7 +21489,7 @@
         <v>1124.2895012841173</v>
       </c>
     </row>
-    <row r="87" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>41</v>
       </c>
@@ -21618,7 +21617,7 @@
         <v>1064.3381064404803</v>
       </c>
     </row>
-    <row r="88" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="56" t="s">
         <v>38</v>
       </c>
@@ -21746,7 +21745,7 @@
         <v>59.951394843637054</v>
       </c>
     </row>
-    <row r="89" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>60</v>
       </c>
@@ -21799,7 +21798,7 @@
         <v>20459.220999404424</v>
       </c>
     </row>
-    <row r="90" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="30" t="s">
         <v>38</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>1184.1803881672447</v>
       </c>
     </row>
-    <row r="92" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>61</v>
       </c>
@@ -21873,7 +21872,7 @@
       <c r="P92" s="34"/>
       <c r="Q92" s="34"/>
     </row>
-    <row r="94" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>62</v>
       </c>
@@ -21926,7 +21925,7 @@
         <v>8.0837977578146347</v>
       </c>
     </row>
-    <row r="95" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20" t="s">
         <v>34</v>
       </c>
@@ -21979,7 +21978,7 @@
         <v>6.3087022886119897</v>
       </c>
     </row>
-    <row r="96" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="28" t="s">
         <v>63</v>
       </c>
@@ -22032,7 +22031,7 @@
         <v>3.6585806827258023</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>39</v>
       </c>
@@ -22085,7 +22084,7 @@
         <v>5.9582658979213239</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
         <v>40</v>
       </c>
@@ -22138,7 +22137,7 @@
         <v>6.3865151791048582</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
         <v>42</v>
       </c>
@@ -22191,7 +22190,7 @@
         <v>5.6028890655067141</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
         <v>44</v>
       </c>
@@ -22244,7 +22243,7 @@
         <v>7.0137068919672734</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
         <v>45</v>
       </c>
@@ -22297,7 +22296,7 @@
         <v>6.6538761604813743</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
         <v>64</v>
       </c>
@@ -22350,7 +22349,7 @@
         <v>3.891375160952121</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
         <v>49</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>2.891850244521359</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="25" t="s">
         <v>54</v>
       </c>
@@ -22456,7 +22455,7 @@
         <v>52.22306744785282</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
         <v>40</v>
       </c>
@@ -22509,7 +22508,7 @@
         <v>17.567883826391661</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
         <v>42</v>
       </c>
@@ -22562,7 +22561,7 @@
         <v>52.760263622875833</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="16" t="s">
         <v>44</v>
       </c>
@@ -22615,7 +22614,7 @@
         <v>44.258560431281815</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
         <v>45</v>
       </c>
@@ -22668,7 +22667,7 @@
         <v>47.742687156919985</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="16" t="s">
         <v>49</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>29.215008993649604</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
         <v>56</v>
       </c>
@@ -22774,7 +22773,7 @@
         <v>16.953905482557762</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28" t="s">
         <v>57</v>
       </c>
@@ -22827,7 +22826,7 @@
         <v>7.5788705779275904</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="16" t="s">
         <v>40</v>
       </c>
@@ -22880,7 +22879,7 @@
         <v>7.736378461058524</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="16" t="s">
         <v>42</v>
       </c>
@@ -22933,7 +22932,7 @@
         <v>7.5575374760162823</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="16" t="s">
         <v>44</v>
       </c>
@@ -22986,7 +22985,7 @@
         <v>9.3206204449103875</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="16" t="s">
         <v>45</v>
       </c>
@@ -23039,7 +23038,7 @@
         <v>8.5941252371741808</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="16" t="s">
         <v>49</v>
       </c>
@@ -23092,7 +23091,7 @@
         <v>4.2965181423673284</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>66</v>
       </c>
@@ -23145,7 +23144,7 @@
         <v>43.927732217900747</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="16" t="s">
         <v>59</v>
       </c>
@@ -23198,7 +23197,7 @@
         <v>42.043793903589012</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
         <v>60</v>
       </c>
@@ -23251,7 +23250,7 @@
         <v>49.117770351516853</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>67</v>
       </c>
@@ -23272,7 +23271,7 @@
       <c r="P121" s="36"/>
       <c r="Q121" s="36"/>
     </row>
-    <row r="122" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="20" t="s">
         <v>68</v>
       </c>
@@ -23325,7 +23324,7 @@
         <v>35.480863345848455</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="28" t="s">
         <v>63</v>
       </c>
@@ -23378,7 +23377,7 @@
         <v>30.875559050899167</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="25" t="s">
         <v>39</v>
       </c>
@@ -23431,7 +23430,7 @@
         <v>36.570227370196989</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="16" t="s">
         <v>40</v>
       </c>
@@ -23484,7 +23483,7 @@
         <v>39.35074858228289</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
         <v>42</v>
       </c>
@@ -23537,7 +23536,7 @@
         <v>34.317497296091176</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
         <v>44</v>
       </c>
@@ -23590,7 +23589,7 @@
         <v>42.648014237397902</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
         <v>45</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>39.103430769215059</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
         <v>64</v>
       </c>
@@ -23696,7 +23695,7 @@
         <v>25.585142861312981</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="16" t="s">
         <v>49</v>
       </c>
@@ -23749,7 +23748,7 @@
         <v>19.821768023768563</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="25" t="s">
         <v>54</v>
       </c>
@@ -23802,7 +23801,7 @@
         <v>27.076056770497335</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>40</v>
       </c>
@@ -23855,7 +23854,7 @@
         <v>20.616227489797652</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="16" t="s">
         <v>42</v>
       </c>
@@ -23908,7 +23907,7 @@
         <v>27.4358233182448</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="16" t="s">
         <v>44</v>
       </c>
@@ -23961,7 +23960,7 @@
         <v>22.303308933309822</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="16" t="s">
         <v>45</v>
       </c>
@@ -24014,7 +24013,7 @@
         <v>23.359066342917014</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="16" t="s">
         <v>49</v>
       </c>
@@ -24067,7 +24066,7 @@
         <v>13.576213059158777</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="20" t="s">
         <v>69</v>
       </c>
@@ -24120,7 +24119,7 @@
         <v>55.875874939705476</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="28" t="s">
         <v>57</v>
       </c>
@@ -24173,7 +24172,7 @@
         <v>290.71253688172595</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="16" t="s">
         <v>40</v>
       </c>
@@ -24226,7 +24225,7 @@
         <v>385.76317672014272</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="16" t="s">
         <v>42</v>
       </c>
@@ -24279,7 +24278,7 @@
         <v>285.70228100905439</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="16" t="s">
         <v>44</v>
       </c>
@@ -24332,7 +24331,7 @@
         <v>475.94900025411368</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="16" t="s">
         <v>45</v>
       </c>
@@ -24385,7 +24384,7 @@
         <v>411.52462532205749</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="16" t="s">
         <v>49</v>
       </c>
@@ -24438,7 +24437,7 @@
         <v>191.14763881153533</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="25" t="s">
         <v>66</v>
       </c>
@@ -24491,7 +24490,7 @@
         <v>39.883031736686775</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="16" t="s">
         <v>59</v>
       </c>
@@ -24544,7 +24543,7 @@
         <v>42.197233819154341</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="35" t="s">
         <v>60</v>
       </c>
@@ -24597,7 +24596,7 @@
         <v>35.315796060352284</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>70</v>
       </c>
@@ -24618,7 +24617,7 @@
       <c r="P148" s="36"/>
       <c r="Q148" s="36"/>
     </row>
-    <row r="149" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="20" t="s">
         <v>34</v>
       </c>
@@ -24639,7 +24638,7 @@
       <c r="P149" s="37"/>
       <c r="Q149" s="37"/>
     </row>
-    <row r="150" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="28" t="s">
         <v>63</v>
       </c>
@@ -24692,7 +24691,7 @@
         <v>103.84956163557239</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25" t="s">
         <v>39</v>
       </c>
@@ -24745,7 +24744,7 @@
         <v>676.87077623241237</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="16" t="s">
         <v>40</v>
       </c>
@@ -24798,7 +24797,7 @@
         <v>533.43789965655435</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="16" t="s">
         <v>42</v>
       </c>
@@ -24851,7 +24850,7 @@
         <v>859.88145280844117</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="16" t="s">
         <v>44</v>
       </c>
@@ -24904,7 +24903,7 @@
         <v>726.41720436953131</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="16" t="s">
         <v>45</v>
       </c>
@@ -24957,7 +24956,7 @@
         <v>786.59053447813915</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="16" t="s">
         <v>64</v>
       </c>
@@ -25010,7 +25009,7 @@
         <v>408.30336459598857</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="16" t="s">
         <v>49</v>
       </c>
@@ -25063,7 +25062,7 @@
         <v>408.49955972832316</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
         <v>54</v>
       </c>
@@ -25116,7 +25115,7 @@
         <v>20721.214834817267</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="16" t="s">
         <v>40</v>
       </c>
@@ -25169,7 +25168,7 @@
         <v>2980.8676705932889</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="16" t="s">
         <v>42</v>
       </c>
@@ -25222,7 +25221,7 @@
         <v>20839.612997437438</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="16" t="s">
         <v>44</v>
       </c>
@@ -25275,7 +25274,7 @@
         <v>10940.890026420728</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="16" t="s">
         <v>45</v>
       </c>
@@ -25328,7 +25327,7 @@
         <v>22205.23003964829</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="16" t="s">
         <v>49</v>
       </c>
@@ -25381,7 +25380,7 @@
         <v>12132.807542122269</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="20" t="s">
         <v>56</v>
       </c>
@@ -25402,7 +25401,7 @@
       <c r="P164" s="37"/>
       <c r="Q164" s="37"/>
     </row>
-    <row r="165" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
         <v>57</v>
       </c>
@@ -25455,7 +25454,7 @@
         <v>1170.0976113659226</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="16" t="s">
         <v>40</v>
       </c>
@@ -25508,7 +25507,7 @@
         <v>763.81602056883094</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="16" t="s">
         <v>42</v>
       </c>
@@ -25561,7 +25560,7 @@
         <v>1209.4337895679389</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="16" t="s">
         <v>44</v>
       </c>
@@ -25614,7 +25613,7 @@
         <v>889.73899002771168</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="16" t="s">
         <v>45</v>
       </c>
@@ -25667,7 +25666,7 @@
         <v>1049.7814044140212</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="16" t="s">
         <v>49</v>
       </c>
@@ -25720,7 +25719,7 @@
         <v>443.29531131523561</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="25" t="s">
         <v>66</v>
       </c>
@@ -25773,7 +25772,7 @@
         <v>11572.419346126189</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="16" t="s">
         <v>59</v>
       </c>
@@ -25826,7 +25825,7 @@
         <v>8857.4260184169052</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="35" t="s">
         <v>60</v>
       </c>
@@ -25879,7 +25878,7 @@
         <v>41750.104798789325</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>71</v>
       </c>
@@ -25948,7 +25947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="20" t="s">
         <v>34</v>
       </c>
@@ -26017,7 +26016,7 @@
         <v>0.65027870503893048</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="44" t="s">
         <v>63</v>
       </c>
@@ -26086,7 +26085,7 @@
         <v>1.308345820707927E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="46" t="s">
         <v>39</v>
       </c>
@@ -26155,7 +26154,7 @@
         <v>0.58713848864956608</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="48" t="s">
         <v>40</v>
       </c>
@@ -26224,7 +26223,7 @@
         <v>0.25232416556154735</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="48" t="s">
         <v>42</v>
       </c>
@@ -26293,7 +26292,7 @@
         <v>0.31184082753832004</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="48" t="s">
         <v>44</v>
       </c>
@@ -26362,7 +26361,7 @@
         <v>1.8989852419426762E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="48" t="s">
         <v>45</v>
       </c>
@@ -26431,7 +26430,7 @@
         <v>3.5132634258406453E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="48" t="s">
         <v>64</v>
       </c>
@@ -26500,7 +26499,7 @@
         <v>2.5216810319875433E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="48" t="s">
         <v>49</v>
       </c>
@@ -26569,7 +26568,7 @@
         <v>2.1821160123246312E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="46" t="s">
         <v>54</v>
       </c>
@@ -26638,7 +26637,7 @@
         <v>5.0056758182285166E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="48" t="s">
         <v>40</v>
       </c>
@@ -26707,7 +26706,7 @@
         <v>4.3185440699896119E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="48" t="s">
         <v>42</v>
       </c>
@@ -26776,7 +26775,7 @@
         <v>4.7132370685919446E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="48" t="s">
         <v>44</v>
       </c>
@@ -26845,7 +26844,7 @@
         <v>7.4582577626933845E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="48" t="s">
         <v>45</v>
       </c>
@@ -26914,7 +26913,7 @@
         <v>2.6366641947276029E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="48" t="s">
         <v>49</v>
       </c>
@@ -26983,7 +26982,7 @@
         <v>1.6995528331128663E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="20" t="s">
         <v>56</v>
       </c>
@@ -27052,7 +27051,7 @@
         <v>0.34972129496106957</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="44" t="s">
         <v>57</v>
       </c>
@@ -27121,7 +27120,7 @@
         <v>0.11601350828212223</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="48" t="s">
         <v>40</v>
       </c>
@@ -27190,7 +27189,7 @@
         <v>5.7862314851375067E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="48" t="s">
         <v>42</v>
       </c>
@@ -27259,7 +27258,7 @@
         <v>0.10873512189367</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="48" t="s">
         <v>44</v>
       </c>
@@ -27328,7 +27327,7 @@
         <v>9.7081228205196765E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="48" t="s">
         <v>45</v>
       </c>
@@ -27397,7 +27396,7 @@
         <v>4.6026556865851791E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="48" t="s">
         <v>49</v>
       </c>
@@ -27466,7 +27465,7 @@
         <v>6.1077052604250367E-5</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="46" t="s">
         <v>66</v>
       </c>
@@ -27535,7 +27534,7 @@
         <v>0.23370778667894732</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="50" t="s">
         <v>59</v>
       </c>
@@ -27604,7 +27603,7 @@
         <v>0.1641130954224157</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="11.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="52" t="s">
         <v>60</v>
       </c>
@@ -27691,12 +27690,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -27794,7 +27793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -27892,7 +27891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -27990,7 +27989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -28088,7 +28087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -28186,7 +28185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -28284,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -28382,7 +28381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -28480,7 +28479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -28578,7 +28577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -28676,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -28790,12 +28789,12 @@
       <selection activeCell="B6" sqref="B6:AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -28893,7 +28892,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -28991,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -29089,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -29190,7 +29189,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -29288,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -29389,7 +29388,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -29487,7 +29486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -29585,7 +29584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -29683,7 +29682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -29781,7 +29780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -29895,12 +29894,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -29998,7 +29997,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -30096,7 +30095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -30194,7 +30193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -30293,7 +30292,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -30393,7 +30392,7 @@
         <v>0.92107222888847384</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -30492,7 +30491,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -30592,7 +30591,7 @@
         <v>7.8927771111526199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -30690,7 +30689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -30788,7 +30787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -30886,7 +30885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -31000,12 +30999,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -31103,7 +31102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -31232,7 +31231,7 @@
         <v>0.56548539452436564</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -31330,7 +31329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -31429,7 +31428,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -31558,7 +31557,7 @@
         <v>0.43451460547563436</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -31657,7 +31656,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -31755,7 +31754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -31853,7 +31852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -31951,7 +31950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -32049,7 +32048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -32163,12 +32162,12 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -32266,7 +32265,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -32364,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -32462,7 +32461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -32561,7 +32560,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -32659,7 +32658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -32758,7 +32757,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -32856,7 +32855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -32954,7 +32953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -33052,7 +33051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -33150,7 +33149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -33264,12 +33263,12 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -33367,7 +33366,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -33465,7 +33464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -33563,7 +33562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -33662,7 +33661,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -33760,7 +33759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -33859,7 +33858,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -33957,7 +33956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -34055,7 +34054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -34153,7 +34152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -34251,7 +34250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -34363,7 +34362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34380,12 +34379,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -34483,7 +34482,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -34581,7 +34580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -34679,7 +34678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -34777,7 +34776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -34875,7 +34874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -34973,7 +34972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -35071,7 +35070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -35169,7 +35168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -35267,7 +35266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -35365,7 +35364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -35479,12 +35478,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -35582,7 +35581,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -35680,7 +35679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -35778,7 +35777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -35876,7 +35875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -35974,7 +35973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -36072,7 +36071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -36170,7 +36169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -36268,7 +36267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -36366,7 +36365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -36464,7 +36463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -36575,15 +36574,15 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AD6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -36681,7 +36680,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -36779,7 +36778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -36877,7 +36876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -36939,34 +36938,44 @@
         <v>0.95139971512076316</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <f>$T4+($AE4-$T4)*(U$1-$T$1)/($AE$1-$T$1)</f>
+        <v>0.95101559261627755</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <f t="shared" ref="V4:AD4" si="0">$T4+($AE4-$T4)*(V$1-$T$1)/($AE$1-$T$1)</f>
+        <v>0.95063147011179205</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.95024734760730645</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94986322510282084</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94947910259833534</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94909498009384974</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94871085758936424</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94832673508487864</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94794261258039303</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94755849007590753</v>
       </c>
       <c r="AE4" s="1">
         <f>POTEnCIA!AY87/POTEnCIA!AY86</f>
@@ -36978,7 +36987,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -37076,7 +37085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -37138,34 +37147,44 @@
         <v>4.8600284879236899E-2</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <f t="shared" ref="U6:AD6" si="1">$T6+($AE6-$T6)*(U$1-$T$1)/($AE$1-$T$1)</f>
+        <v>4.8984407383722457E-2</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.9368529888208015E-2</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.9752652392693573E-2</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.0136774897179132E-2</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.052089740166469E-2</v>
       </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.0905019906150241E-2</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.1289142410635799E-2</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.1673264915121357E-2</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.2057387419606915E-2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.2441509924092473E-2</v>
       </c>
       <c r="AE6" s="1">
         <f>POTEnCIA!AY88/POTEnCIA!AY86</f>
@@ -37177,7 +37196,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -37275,7 +37294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -37373,7 +37392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -37471,7 +37490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -37569,7 +37588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -37683,12 +37702,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -37786,7 +37805,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -37884,7 +37903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -37982,7 +38001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -38080,7 +38099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -38178,7 +38197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -38276,7 +38295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -38374,7 +38393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -38472,7 +38491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -38570,7 +38589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -38668,7 +38687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -38780,15 +38799,15 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AD7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -38886,7 +38905,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -38984,7 +39003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -39082,7 +39101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -39181,7 +39200,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -39281,7 +39300,7 @@
         <v>0.92087488893270086</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -39380,7 +39399,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -39480,7 +39499,7 @@
         <v>7.9125111067299164E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -39578,7 +39597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -39676,7 +39695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -39774,7 +39793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -39888,12 +39907,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -39991,7 +40010,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -40140,7 +40159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -40289,7 +40308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -40438,7 +40457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -40587,7 +40606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -40736,7 +40755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -40885,7 +40904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -41034,7 +41053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -41183,7 +41202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -41332,7 +41351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -41497,12 +41516,12 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -41600,7 +41619,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -41698,7 +41717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -41796,7 +41815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -41895,7 +41914,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -41993,7 +42012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -42092,7 +42111,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -42190,7 +42209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -42288,7 +42307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -42386,7 +42405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -42484,7 +42503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -42598,12 +42617,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -42701,7 +42720,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -42799,7 +42818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -42897,7 +42916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -42996,7 +43015,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -43094,7 +43113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -43193,7 +43212,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -43291,7 +43310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -43389,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -43487,7 +43506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -43585,7 +43604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -43697,7 +43716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43714,12 +43733,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -43817,7 +43836,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -43915,7 +43934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -44013,7 +44032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -44111,7 +44130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -44209,7 +44228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -44307,7 +44326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -44405,7 +44424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -44503,7 +44522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -44601,7 +44620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -44699,7 +44718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -44813,12 +44832,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -44916,7 +44935,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -45014,7 +45033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -45112,7 +45131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -45210,7 +45229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -45308,7 +45327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -45406,7 +45425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -45504,7 +45523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -45602,7 +45621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -45700,7 +45719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -45798,7 +45817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -45912,12 +45931,12 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -46015,7 +46034,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -46113,7 +46132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -46211,7 +46230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -46309,7 +46328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -46407,7 +46426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -46505,7 +46524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -46603,7 +46622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -46701,7 +46720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -46799,7 +46818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -46897,7 +46916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -47011,12 +47030,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -47114,7 +47133,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -47212,7 +47231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -47310,7 +47329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -47408,7 +47427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -47506,7 +47525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -47604,7 +47623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -47702,7 +47721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -47800,7 +47819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -47898,7 +47917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -47996,7 +48015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -48110,12 +48129,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -48213,7 +48232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -48311,7 +48330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -48409,7 +48428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -48507,7 +48526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -48605,7 +48624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -48703,7 +48722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -48801,7 +48820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -48899,7 +48918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -48997,7 +49016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -49095,7 +49114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -49209,12 +49228,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -49312,7 +49331,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -49410,7 +49429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -49508,7 +49527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -49606,7 +49625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -49704,7 +49723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -49802,7 +49821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -49900,7 +49919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -49998,7 +50017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -50096,7 +50115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -50194,7 +50213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -50306,7 +50325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50323,12 +50342,12 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -50426,7 +50445,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -50524,7 +50543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -50622,7 +50641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -50720,7 +50739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -50818,7 +50837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -50916,7 +50935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -51014,7 +51033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -51112,7 +51131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -51210,7 +51229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -51308,7 +51327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -51422,12 +51441,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -51525,7 +51544,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -51623,7 +51642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -51721,7 +51740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -51819,7 +51838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -51917,7 +51936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -52015,7 +52034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -52113,7 +52132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -52211,7 +52230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -52309,7 +52328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -52407,7 +52426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -52521,12 +52540,12 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -52624,7 +52643,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -52722,7 +52741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -52820,7 +52839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -52918,7 +52937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -53016,7 +53035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -53114,7 +53133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -53212,7 +53231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -53310,7 +53329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -53408,7 +53427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -53506,7 +53525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -53620,12 +53639,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -53723,7 +53742,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -53821,7 +53840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -53919,7 +53938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -54017,7 +54036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -54115,7 +54134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -54213,7 +54232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -54311,7 +54330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -54409,7 +54428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -54507,7 +54526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -54605,7 +54624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -54719,12 +54738,12 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -54822,7 +54841,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -54920,7 +54939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -55018,7 +55037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -55116,7 +55135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -55214,7 +55233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -55312,7 +55331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -55410,7 +55429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -55508,7 +55527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -55606,7 +55625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -55704,7 +55723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -55816,7 +55835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55833,12 +55852,12 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -55936,7 +55955,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -56034,7 +56053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -56132,7 +56151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -56230,7 +56249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -56328,7 +56347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -56426,7 +56445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -56524,7 +56543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -56622,7 +56641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -56720,7 +56739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -56818,7 +56837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -56932,12 +56951,12 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -57035,7 +57054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -57133,7 +57152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -57231,7 +57250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -57329,7 +57348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -57427,7 +57446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -57525,7 +57544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -57623,7 +57642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -57721,7 +57740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -57819,7 +57838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -57917,7 +57936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -58031,12 +58050,12 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -58134,7 +58153,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -58232,7 +58251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -58330,7 +58349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -58428,7 +58447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -58526,7 +58545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -58624,7 +58643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -58722,7 +58741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -58820,7 +58839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -58918,7 +58937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -59016,7 +59035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -59126,16 +59145,16 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AF4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -59233,7 +59252,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -59331,7 +59350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -59429,7 +59448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -59520,17 +59539,17 @@
       <c r="AD4" s="92">
         <v>0.93359990871754606</v>
       </c>
-      <c r="AE4" s="93">
+      <c r="AE4" s="1">
         <f>POTEnCIA!AY25/POTEnCIA!AY24</f>
         <v>0.9354597439318284</v>
       </c>
-      <c r="AF4" s="93">
+      <c r="AF4" s="1">
         <f>POTEnCIA!AZ25/POTEnCIA!AZ24</f>
         <v>0.93364239320421838</v>
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -59628,7 +59647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -59729,7 +59748,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -59827,7 +59846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -59925,7 +59944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -60023,7 +60042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -60121,7 +60140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -60235,12 +60254,12 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -60338,7 +60357,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -60436,7 +60455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -60534,7 +60553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -60632,7 +60651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -60730,7 +60749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -60828,7 +60847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -60926,7 +60945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -61024,7 +61043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -61122,7 +61141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -61220,7 +61239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -61334,12 +61353,12 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -61437,7 +61456,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -61535,7 +61554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -61633,7 +61652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -61731,7 +61750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -61829,7 +61848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -61927,7 +61946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -62025,7 +62044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -62123,7 +62142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -62221,7 +62240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -62319,7 +62338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -62431,7 +62450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62448,12 +62467,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -62551,7 +62570,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -62649,7 +62668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -62747,7 +62766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -62845,7 +62864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -62943,7 +62962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -63041,7 +63060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -63139,7 +63158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -63237,7 +63256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -63335,7 +63354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -63433,7 +63452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -63547,12 +63566,12 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -63650,7 +63669,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -63748,7 +63767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -63846,7 +63865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -63944,7 +63963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -64042,7 +64061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -64140,7 +64159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -64238,7 +64257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -64336,7 +64355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -64434,7 +64453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -64532,7 +64551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -64646,12 +64665,12 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -64749,7 +64768,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -64847,7 +64866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -64945,7 +64964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -65043,7 +65062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -65141,7 +65160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -65239,7 +65258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -65337,7 +65356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -65435,7 +65454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -65533,7 +65552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -65631,7 +65650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -65745,12 +65764,12 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -65848,7 +65867,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -65946,7 +65965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -66044,7 +66063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -66142,7 +66161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -66240,7 +66259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -66338,7 +66357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -66436,7 +66455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -66534,7 +66553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -66632,7 +66651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -66730,7 +66749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -66844,12 +66863,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -66947,7 +66966,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -67045,7 +67064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -67143,7 +67162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -67241,7 +67260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -67339,7 +67358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -67437,7 +67456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -67535,7 +67554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -67633,7 +67652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -67731,7 +67750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -67829,7 +67848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -67941,7 +67960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67958,12 +67977,12 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -68061,7 +68080,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -68159,7 +68178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -68257,7 +68276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -68355,7 +68374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -68453,7 +68472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -68551,7 +68570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -68649,7 +68668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -68747,7 +68766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -68845,7 +68864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -68943,7 +68962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -69057,12 +69076,12 @@
       <selection activeCell="B7" sqref="B7:AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -69160,7 +69179,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -69258,7 +69277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -69356,7 +69375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -69454,7 +69473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -69554,7 +69573,7 @@
         <v>0.92265921103342596</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -69652,7 +69671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -69752,7 +69771,7 @@
         <v>7.7340788966574078E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -69850,7 +69869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -69948,7 +69967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -70046,7 +70065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -70160,12 +70179,12 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -70263,7 +70282,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -70361,7 +70380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -70459,7 +70478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -70557,7 +70576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -70655,7 +70674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -70753,7 +70772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -70851,7 +70870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -70949,7 +70968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -71047,7 +71066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -71145,7 +71164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -71259,12 +71278,12 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -71362,7 +71381,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -71460,7 +71479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -71558,7 +71577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -71656,7 +71675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -71754,7 +71773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -71852,7 +71871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -71950,7 +71969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -72048,7 +72067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -72146,7 +72165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -72244,7 +72263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -72358,12 +72377,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -72461,7 +72480,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -72559,7 +72578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -72657,7 +72676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -72755,7 +72774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -72853,7 +72872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -72951,7 +72970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -73049,7 +73068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -73147,7 +73166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -73245,7 +73264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -73343,7 +73362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -73457,12 +73476,12 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -73560,7 +73579,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -73658,7 +73677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -73756,7 +73775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -73854,7 +73873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -73952,7 +73971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -74050,7 +74069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -74148,7 +74167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -74246,7 +74265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -74344,7 +74363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -74442,7 +74461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -74554,7 +74573,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -74571,12 +74590,12 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -74674,7 +74693,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -74772,7 +74791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -74870,7 +74889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -74968,7 +74987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -75066,7 +75085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -75164,7 +75183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -75262,7 +75281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -75360,7 +75379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -75458,7 +75477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -75556,7 +75575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -75670,12 +75689,12 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -75773,7 +75792,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -75871,7 +75890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -75969,7 +75988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -76067,7 +76086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -76165,7 +76184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -76263,7 +76282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -76361,7 +76380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -76459,7 +76478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -76557,7 +76576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -76655,7 +76674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -76769,12 +76788,12 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -76872,7 +76891,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -76970,7 +76989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -77068,7 +77087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -77166,7 +77185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -77264,7 +77283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -77362,7 +77381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -77460,7 +77479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -77558,7 +77577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -77656,7 +77675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -77754,7 +77773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -77868,12 +77887,12 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -77971,7 +77990,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -78069,7 +78088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -78167,7 +78186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -78265,7 +78284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -78363,7 +78382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -78461,7 +78480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -78559,7 +78578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -78657,7 +78676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -78755,7 +78774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -78853,7 +78872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -78967,12 +78986,12 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -79070,7 +79089,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -79168,7 +79187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -79266,7 +79285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -79364,7 +79383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -79462,7 +79481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -79560,7 +79579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -79658,7 +79677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -79756,7 +79775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -79854,7 +79873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -79952,7 +79971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -80066,12 +80085,12 @@
       <selection activeCell="B4" sqref="B4:AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -80169,7 +80188,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -80269,7 +80288,7 @@
         <v>0.29719291440125567</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -80367,7 +80386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -80468,7 +80487,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -80566,7 +80585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -80665,7 +80684,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -80763,7 +80782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -80861,7 +80880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -80959,7 +80978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -81057,7 +81076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -81172,7 +81191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -81189,12 +81208,12 @@
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -81292,7 +81311,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -81390,7 +81409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -81488,7 +81507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -81586,7 +81605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -81684,7 +81703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -81782,7 +81801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -81880,7 +81899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -81978,7 +81997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -82076,7 +82095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -82174,7 +82193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -82288,12 +82307,12 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -82391,7 +82410,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -82489,7 +82508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -82587,7 +82606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -82685,7 +82704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -82783,7 +82802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -82881,7 +82900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -82979,7 +82998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -83077,7 +83096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -83175,7 +83194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -83273,7 +83292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -83387,12 +83406,12 @@
       <selection activeCell="B6" sqref="B6:AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -83490,7 +83509,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -83588,7 +83607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -83686,7 +83705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -83786,7 +83805,7 @@
         <v>0.95263713903654457</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -83884,7 +83903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -83984,7 +84003,7 @@
         <v>4.7362860963455468E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -84082,7 +84101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -84180,7 +84199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -84278,7 +84297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -84376,7 +84395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -84490,12 +84509,12 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -84593,7 +84612,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -84691,7 +84710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -84789,7 +84808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -84887,7 +84906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -84985,7 +85004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -85083,7 +85102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -85181,7 +85200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -85279,7 +85298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -85377,7 +85396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -85475,7 +85494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -85589,12 +85608,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -85692,7 +85711,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -85821,7 +85840,7 @@
         <v>0.29719291440125567</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -85950,7 +85969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -86079,7 +86098,7 @@
         <v>0.70280708559874427</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -86208,7 +86227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -86306,7 +86325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -86404,7 +86423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -86502,7 +86521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -86600,7 +86619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -86698,7 +86717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -86812,12 +86831,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -86915,7 +86934,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -87013,7 +87032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -87111,7 +87130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -87210,7 +87229,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -87308,7 +87327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -87407,7 +87426,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -87505,7 +87524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -87603,7 +87622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -87701,7 +87720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -87799,7 +87818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -87913,12 +87932,12 @@
       <selection activeCell="H39" sqref="H39:H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -88016,7 +88035,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -88114,7 +88133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -88212,7 +88231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -88311,7 +88330,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -88409,7 +88428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -88508,7 +88527,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -88606,7 +88625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -88704,7 +88723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -88802,7 +88821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -88900,7 +88919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -89012,7 +89031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -89029,12 +89048,12 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -89132,7 +89151,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -89230,7 +89249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -89328,7 +89347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -89426,7 +89445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -89524,7 +89543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -89622,7 +89641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -89720,7 +89739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -89818,7 +89837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -89916,7 +89935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -90014,7 +90033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -90126,12 +90145,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -90229,7 +90248,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -90327,7 +90346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -90425,7 +90444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -90524,7 +90543,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -90622,7 +90641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -90721,7 +90740,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -90819,7 +90838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -90917,7 +90936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -91015,7 +91034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -91113,7 +91132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -91227,12 +91246,12 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -91330,7 +91349,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -91428,7 +91447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -91526,7 +91545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -91624,7 +91643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -91722,7 +91741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -91820,7 +91839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -91918,7 +91937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -92016,7 +92035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -92114,7 +92133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -92212,7 +92231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -92326,12 +92345,12 @@
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -92429,7 +92448,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -92527,7 +92546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -92625,7 +92644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -92754,7 +92773,7 @@
         <v>0.95263713903654457</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -92883,7 +92902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -93012,7 +93031,7 @@
         <v>4.7362860963455468E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -93141,7 +93160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -93270,7 +93289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -93399,7 +93418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -93528,7 +93547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -93673,12 +93692,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -93776,7 +93795,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -93905,7 +93924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -94034,7 +94053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -94163,7 +94182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -94292,7 +94311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -94421,7 +94440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -94550,7 +94569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -94679,7 +94698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -94808,7 +94827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -94937,7 +94956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -95082,12 +95101,12 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -95185,7 +95204,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -95314,7 +95333,7 @@
         <v>0.29719291440125567</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -95443,7 +95462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -95572,7 +95591,7 @@
         <v>0.70280708559874427</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -95701,7 +95720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -95830,7 +95849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -95959,7 +95978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -96088,7 +96107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -96217,7 +96236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -96346,7 +96365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -96491,12 +96510,12 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -96594,7 +96613,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -96692,7 +96711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -96790,7 +96809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -96889,7 +96908,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -96987,7 +97006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -97086,7 +97105,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -97184,7 +97203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -97282,7 +97301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -97380,7 +97399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -97478,7 +97497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -97588,16 +97607,16 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -97695,7 +97714,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -97793,7 +97812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -97891,7 +97910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -97990,7 +98009,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -98088,7 +98107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -98187,7 +98206,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -98285,7 +98304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -98383,7 +98402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -98481,7 +98500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -98579,7 +98598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -98693,12 +98712,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -98793,7 +98812,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -98888,7 +98907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -98983,7 +99002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -99079,7 +99098,7 @@
       </c>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -99174,7 +99193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -99270,7 +99289,7 @@
       </c>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -99365,7 +99384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -99460,7 +99479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -99555,7 +99574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -99650,7 +99669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
